--- a/src/test/resources/ConnectionsGATE.xlsx
+++ b/src/test/resources/ConnectionsGATE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafalst/IdeaProjects/SaveATrainPlaywrith/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99419850-60C8-5C4F-BDC5-9AB56BDAA6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE4AA10-28FE-DF42-B085-BCA422EB8874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17400" xr2:uid="{800225BC-0EDC-F14A-9F21-CBE6997CEC23}"/>
   </bookViews>
@@ -433,7 +433,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>45471.292361111111</v>
+        <v>45502.292361111111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>45471.292361111111</v>
+        <v>45502.292361111111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
